--- a/Strokenplanning.xlsx
+++ b/Strokenplanning.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="59">
   <si>
     <t>Strokenplanning</t>
   </si>
@@ -227,7 +227,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +320,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
@@ -355,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -453,7 +459,15 @@
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1907,12 +1921,44 @@
         <v>56</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="N59" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="O59" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="P59" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q59" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="R59" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="S59" s="46"/>
       <c r="T59" s="31"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -1983,7 +2029,7 @@
         <v>58</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="Q64" s="43" t="s">
+      <c r="Q64" s="47" t="s">
         <v>14</v>
       </c>
       <c r="T64" s="31"/>
